--- a/test_data/Orange_test_data.xlsx
+++ b/test_data/Orange_test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python+Selenium Training\hybrid_framework\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3E41FD-410B-4B8B-986E-7121FAC0E37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6700C89A-801B-4B4C-9666-17CD937D722D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_add_valid_employee" sheetId="1" r:id="rId1"/>
+    <sheet name="test_invalid_profile_upload" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>User Name</t>
   </si>
@@ -64,6 +65,18 @@
   </si>
   <si>
     <t>Harvey Specter</t>
+  </si>
+  <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>Expected Error</t>
+  </si>
+  <si>
+    <t>File type not allowed</t>
+  </si>
+  <si>
+    <t>D:\Error.pdf</t>
   </si>
 </sst>
 </file>
@@ -383,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,4 +460,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DCC6B8-2B40-4961-8EA2-231918D36A77}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>